--- a/notes/Campaign Manager Backlog 10022014.xlsx
+++ b/notes/Campaign Manager Backlog 10022014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="340" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1860" yWindow="480" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Campaign Manager" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="132">
   <si>
     <t>Rank</t>
   </si>
@@ -171,60 +171,18 @@
     <t>CM. Line Item Edit. Use of [Enter] Goes to Previous tab</t>
   </si>
   <si>
-    <t>Road Map (7-24 Weeks) Not for 2/1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Creating Campaigns &amp; Line Items that are incolmplete </t>
   </si>
   <si>
-    <t xml:space="preserve">Creating Incomplete Campaign </t>
-  </si>
-  <si>
-    <t>Creating Incomplete Campaign Line Item</t>
-  </si>
-  <si>
     <t>Campaign Manager User Metrics</t>
   </si>
   <si>
-    <t>Maximum number of users in CM</t>
-  </si>
-  <si>
-    <t>Create spikes for performance team to test</t>
-  </si>
-  <si>
-    <t>Multiple users Viewing Campaign Manager Information</t>
-  </si>
-  <si>
-    <t>Multiple users Editing Campaigns, Line Items and Ad Assets</t>
-  </si>
-  <si>
-    <t>Multiple users in Campaign Manager</t>
-  </si>
-  <si>
     <t>Basic/Existing Functionality for New Layout</t>
   </si>
   <si>
-    <t>Line Item Create/Edit Line Item Summary Sidebar</t>
-  </si>
-  <si>
-    <t>Line Item Create/Edit Campaign Summary Sidebar</t>
-  </si>
-  <si>
     <t>Campaign Flight Window Rules and Logic</t>
   </si>
   <si>
-    <t>Campaign Manager will enforce Flight Window logic - New Campaign &amp; CL Item</t>
-  </si>
-  <si>
-    <t>Campaign Manager will enforce Flight Window logic - New CL Item</t>
-  </si>
-  <si>
-    <t>Campaign Manager will enforce Flight Window logic - Edit Existing Campaign</t>
-  </si>
-  <si>
-    <t>Campaign Manager will enforce Flight Window logic - Edit Existing CL Item</t>
-  </si>
-  <si>
     <t>Ad Asset Availability - Cannot differentiate between 'not checked' and 'missing'</t>
   </si>
   <si>
@@ -423,9 +381,6 @@
     <t xml:space="preserve">Admin only features hidden in GUI for Network Users </t>
   </si>
   <si>
-    <t>To be evaluated for 2/1</t>
-  </si>
-  <si>
     <t>Need 2/1</t>
   </si>
   <si>
@@ -435,9 +390,6 @@
     <t>Spike</t>
   </si>
   <si>
-    <t>Bring in require js?</t>
-  </si>
-  <si>
     <t>Campaign details header information for Network Users</t>
   </si>
   <si>
@@ -453,14 +405,26 @@
     <t>Validate user configuration upon login</t>
   </si>
   <si>
-    <t>Wish List/Strategy (24+ Weeks)</t>
+    <t>Road Map (12-24 Weeks) Not for 2/1</t>
+  </si>
+  <si>
+    <t>(7-11 weeks) To be evaluated for 2/1</t>
+  </si>
+  <si>
+    <t>Wish List</t>
+  </si>
+  <si>
+    <t>Strategy (24+ Weeks)</t>
+  </si>
+  <si>
+    <t>Incoropriate require.js</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -519,6 +483,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1096,13 +1068,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1344,18 +1318,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1407,9 +1369,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1477,9 +1436,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1822,11 +1783,11 @@
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A123" sqref="A123:E123"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1834,7 +1795,7 @@
     <col min="1" max="1" width="22.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="8.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="124.83203125" style="115" customWidth="1"/>
+    <col min="4" max="4" width="124.83203125" style="110" customWidth="1"/>
     <col min="5" max="5" width="33.6640625" style="3" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="3"/>
   </cols>
@@ -1858,13 +1819,13 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="18">
-      <c r="A2" s="119" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="121"/>
+      <c r="A2" s="114" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="116"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="23">
@@ -1878,7 +1839,7 @@
         <v>38</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E3" s="10">
         <v>5</v>
@@ -1893,10 +1854,10 @@
         <v>6454</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="E4" s="11">
         <v>8</v>
@@ -1917,10 +1878,10 @@
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E6" s="19">
         <f>SUM(E7:E10)</f>
@@ -1937,7 +1898,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E7" s="24">
         <v>13</v>
@@ -1953,7 +1914,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="E8" s="29">
         <v>5</v>
@@ -1969,7 +1930,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="E9" s="29">
         <v>5</v>
@@ -1985,7 +1946,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E10" s="29">
         <v>8</v>
@@ -2006,10 +1967,10 @@
         <v>6436</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="5"/>
@@ -2025,7 +1986,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E13" s="41">
         <f>SUM(E14:E14)</f>
@@ -2042,7 +2003,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E14" s="11">
         <v>13</v>
@@ -2060,7 +2021,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="E15" s="45">
         <f>SUM(E16:E18)</f>
@@ -2077,7 +2038,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E16" s="11">
         <v>8</v>
@@ -2093,7 +2054,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E17" s="11">
         <v>13</v>
@@ -2109,7 +2070,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E18" s="11">
         <v>3</v>
@@ -2117,19 +2078,19 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" ht="23">
-      <c r="A19" s="46">
+      <c r="A19" s="76">
         <v>6</v>
       </c>
-      <c r="B19" s="47">
+      <c r="B19" s="76">
         <v>6448</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="E19" s="45">
+      <c r="D19" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="76">
         <f>SUM(E20:E21)</f>
         <v>3</v>
       </c>
@@ -2144,7 +2105,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E20" s="26">
         <v>3</v>
@@ -2160,23 +2121,25 @@
       <c r="F21" s="49"/>
     </row>
     <row r="22" spans="1:6" ht="18">
-      <c r="A22" s="119" t="s">
+      <c r="A22" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="120"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="121"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="23">
-      <c r="A23" s="11"/>
+      <c r="A23" s="11">
+        <v>7</v>
+      </c>
       <c r="B23" s="55"/>
       <c r="C23" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E23" s="11">
         <v>21</v>
@@ -2197,17 +2160,17 @@
         <v>6436</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E25" s="37"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" ht="23">
       <c r="A26" s="38">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B26" s="39">
         <v>6386</v>
@@ -2216,7 +2179,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E26" s="41">
         <f>SUM(E27:E27)</f>
@@ -2233,7 +2196,7 @@
         <v>7</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="E27" s="11">
         <v>1</v>
@@ -2250,7 +2213,7 @@
     </row>
     <row r="29" spans="1:6" ht="24" thickBot="1">
       <c r="A29" s="58">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B29" s="59">
         <v>6440</v>
@@ -2259,7 +2222,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="60" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E29" s="61">
         <f>SUM(E30:E31)</f>
@@ -2276,7 +2239,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="63" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E30" s="64">
         <v>13</v>
@@ -2292,7 +2255,7 @@
         <v>7</v>
       </c>
       <c r="D31" s="63" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E31" s="64">
         <v>21</v>
@@ -2309,7 +2272,7 @@
     </row>
     <row r="33" spans="1:6" ht="23">
       <c r="A33" s="68">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B33" s="39">
         <v>6443</v>
@@ -2318,7 +2281,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="69" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="E33" s="41">
         <f>SUM(E34:E35)</f>
@@ -2335,7 +2298,7 @@
         <v>7</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E34" s="11">
         <v>8</v>
@@ -2351,7 +2314,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E35" s="11">
         <v>13</v>
@@ -2368,7 +2331,7 @@
     </row>
     <row r="37" spans="1:6" ht="23">
       <c r="A37" s="70">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37" s="71">
         <v>6446</v>
@@ -2377,7 +2340,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="72" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E37" s="41">
         <f>SUM(E38:E38)</f>
@@ -2394,7 +2357,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="E38" s="26">
         <v>8</v>
@@ -2411,7 +2374,7 @@
     </row>
     <row r="40" spans="1:6" ht="23">
       <c r="A40" s="46">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B40" s="47">
         <v>6448</v>
@@ -2420,7 +2383,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E40" s="45">
         <f>SUM(E41:E42)</f>
@@ -2437,7 +2400,7 @@
         <v>7</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E41" s="11">
         <v>13</v>
@@ -2453,7 +2416,7 @@
         <v>7</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E42" s="11">
         <v>3</v>
@@ -2469,13 +2432,13 @@
         <v>7</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="E43" s="26">
         <v>8</v>
       </c>
       <c r="F43" s="49" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="23">
@@ -2488,7 +2451,7 @@
     </row>
     <row r="45" spans="1:6" ht="23">
       <c r="A45" s="11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B45" s="11">
         <v>6397</v>
@@ -2497,7 +2460,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E45" s="11">
         <v>13</v>
@@ -2521,18 +2484,18 @@
       <c r="F47" s="49"/>
     </row>
     <row r="48" spans="1:6" ht="19" thickBot="1">
-      <c r="A48" s="122" t="s">
-        <v>133</v>
-      </c>
-      <c r="B48" s="123"/>
-      <c r="C48" s="123"/>
-      <c r="D48" s="123"/>
-      <c r="E48" s="124"/>
+      <c r="A48" s="117" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="118"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="119"/>
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" ht="23">
       <c r="A49" s="75">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B49" s="76">
         <v>6126</v>
@@ -2604,7 +2567,7 @@
     </row>
     <row r="54" spans="1:6" ht="23">
       <c r="A54" s="75">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B54" s="76">
         <v>6202</v>
@@ -2675,7 +2638,7 @@
         <v>7</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E58" s="64"/>
       <c r="F58" s="6"/>
@@ -2689,7 +2652,7 @@
         <v>7</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E59" s="64"/>
       <c r="F59" s="6"/>
@@ -2704,7 +2667,7 @@
     </row>
     <row r="61" spans="1:6" ht="23">
       <c r="A61" s="75">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B61" s="76">
         <v>5574</v>
@@ -2776,7 +2739,7 @@
     </row>
     <row r="66" spans="1:6" ht="23">
       <c r="A66" s="75">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B66" s="76">
         <v>6010</v>
@@ -2823,232 +2786,232 @@
       <c r="F68" s="5"/>
     </row>
     <row r="69" spans="1:6" ht="23">
-      <c r="A69" s="81"/>
-      <c r="B69" s="82"/>
-      <c r="C69" s="57"/>
-      <c r="D69" s="83"/>
-      <c r="E69" s="84"/>
-      <c r="F69" s="5"/>
+      <c r="A69" s="25"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="6"/>
     </row>
     <row r="70" spans="1:6" ht="23">
-      <c r="A70" s="25"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="29"/>
+      <c r="A70" s="75">
+        <v>18</v>
+      </c>
+      <c r="B70" s="76">
+        <v>6048</v>
+      </c>
+      <c r="C70" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="78"/>
       <c r="F70" s="6"/>
     </row>
     <row r="71" spans="1:6" ht="23">
-      <c r="A71" s="75">
-        <v>17</v>
-      </c>
-      <c r="B71" s="76">
-        <v>6048</v>
-      </c>
-      <c r="C71" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="E71" s="78"/>
-      <c r="F71" s="6"/>
+      <c r="A71" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" s="11">
+        <v>6003</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="81">
+        <v>5</v>
+      </c>
+      <c r="F71" s="5"/>
     </row>
     <row r="72" spans="1:6" ht="23">
       <c r="A72" s="79" t="s">
-        <v>134</v>
-      </c>
-      <c r="B72" s="11">
-        <v>6003</v>
+        <v>119</v>
+      </c>
+      <c r="B72" s="26">
+        <v>6049</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E72" s="85">
-        <v>5</v>
+        <v>27</v>
+      </c>
+      <c r="E72" s="29">
+        <v>1</v>
       </c>
       <c r="F72" s="5"/>
     </row>
     <row r="73" spans="1:6" ht="23">
-      <c r="A73" s="79" t="s">
-        <v>134</v>
-      </c>
-      <c r="B73" s="26">
-        <v>6049</v>
+      <c r="A73" s="79"/>
+      <c r="B73" s="11">
+        <v>6000</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E73" s="29">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="E73" s="80">
+        <v>2</v>
       </c>
       <c r="F73" s="5"/>
     </row>
     <row r="74" spans="1:6" ht="23">
       <c r="A74" s="79"/>
       <c r="B74" s="11">
-        <v>6000</v>
+        <v>5531</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E74" s="80">
-        <v>2</v>
-      </c>
-      <c r="F74" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="F74" s="6"/>
     </row>
     <row r="75" spans="1:6" ht="23">
       <c r="A75" s="79"/>
       <c r="B75" s="11">
-        <v>5531</v>
+        <v>6306</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E75" s="80">
-        <v>13</v>
-      </c>
-      <c r="F75" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="F75" s="82"/>
     </row>
     <row r="76" spans="1:6" ht="23">
       <c r="A76" s="79"/>
-      <c r="B76" s="11">
-        <v>6306</v>
-      </c>
-      <c r="C76" s="11" t="s">
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="80"/>
+      <c r="F76" s="82"/>
+    </row>
+    <row r="77" spans="1:6" ht="46">
+      <c r="A77" s="79"/>
+      <c r="B77" s="11">
+        <v>6317</v>
+      </c>
+      <c r="C77" s="11"/>
+      <c r="D77" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77" s="80">
+        <v>8</v>
+      </c>
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="1:6" ht="23">
+      <c r="A78" s="79"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="80"/>
+      <c r="F78" s="5"/>
+    </row>
+    <row r="79" spans="1:6" ht="23">
+      <c r="A79" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79" s="30">
+        <v>6195</v>
+      </c>
+      <c r="C79" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D76" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="E76" s="80">
-        <v>8</v>
-      </c>
-      <c r="F76" s="86"/>
-    </row>
-    <row r="77" spans="1:6" ht="23">
-      <c r="A77" s="79"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="80"/>
-      <c r="F77" s="86"/>
-    </row>
-    <row r="78" spans="1:6" ht="46">
-      <c r="A78" s="79"/>
-      <c r="B78" s="11">
-        <v>6317</v>
-      </c>
-      <c r="C78" s="11"/>
-      <c r="D78" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="E78" s="80">
-        <v>8</v>
-      </c>
-      <c r="F78" s="6"/>
-    </row>
-    <row r="79" spans="1:6" ht="23">
-      <c r="A79" s="79"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="80"/>
+      <c r="D79" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" s="83">
+        <v>3</v>
+      </c>
       <c r="F79" s="5"/>
     </row>
     <row r="80" spans="1:6" ht="23">
       <c r="A80" s="79" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B80" s="30">
-        <v>6195</v>
+        <v>6196</v>
       </c>
       <c r="C80" s="30" t="s">
         <v>7</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E80" s="87">
-        <v>3</v>
+        <v>33</v>
+      </c>
+      <c r="E80" s="83" t="s">
+        <v>34</v>
       </c>
       <c r="F80" s="5"/>
     </row>
     <row r="81" spans="1:6" ht="23">
-      <c r="A81" s="79" t="s">
-        <v>134</v>
-      </c>
-      <c r="B81" s="30">
-        <v>6196</v>
-      </c>
-      <c r="C81" s="30" t="s">
+      <c r="A81" s="84"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="83"/>
+      <c r="F81" s="6"/>
+    </row>
+    <row r="82" spans="1:6" ht="23">
+      <c r="A82" s="79"/>
+      <c r="B82" s="11">
+        <v>6005</v>
+      </c>
+      <c r="C82" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D81" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E81" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="F81" s="5"/>
-    </row>
-    <row r="82" spans="1:6" ht="23">
-      <c r="A82" s="88"/>
-      <c r="B82" s="30"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="87"/>
+      <c r="D82" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E82" s="80" t="s">
+        <v>36</v>
+      </c>
       <c r="F82" s="6"/>
     </row>
     <row r="83" spans="1:6" ht="23">
       <c r="A83" s="79"/>
-      <c r="B83" s="11">
-        <v>6005</v>
-      </c>
-      <c r="C83" s="11" t="s">
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="80"/>
+      <c r="F83" s="6"/>
+    </row>
+    <row r="84" spans="1:6" ht="23">
+      <c r="A84" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="B84" s="11">
+        <v>6395</v>
+      </c>
+      <c r="C84" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E83" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="F83" s="6"/>
-    </row>
-    <row r="84" spans="1:6" ht="23">
-      <c r="A84" s="79"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="31"/>
+      <c r="D84" s="31" t="s">
+        <v>93</v>
+      </c>
       <c r="E84" s="80"/>
       <c r="F84" s="6"/>
     </row>
     <row r="85" spans="1:6" ht="23">
-      <c r="A85" s="79" t="s">
-        <v>134</v>
-      </c>
-      <c r="B85" s="11">
-        <v>6395</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" s="31" t="s">
-        <v>107</v>
-      </c>
+      <c r="A85" s="79"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="31"/>
       <c r="E85" s="80"/>
       <c r="F85" s="6"/>
     </row>
@@ -3056,546 +3019,494 @@
       <c r="A86" s="79"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
-      <c r="D86" s="31"/>
+      <c r="D86" s="31" t="s">
+        <v>120</v>
+      </c>
       <c r="E86" s="80"/>
       <c r="F86" s="6"/>
     </row>
     <row r="87" spans="1:6" ht="23">
-      <c r="A87" s="79"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="E87" s="80"/>
+      <c r="A87" s="25"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="29"/>
       <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6" ht="23">
-      <c r="A88" s="25"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="29"/>
+      <c r="A88" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="B88" s="86">
+        <v>6034</v>
+      </c>
+      <c r="C88" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="D88" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="E88" s="88">
+        <v>8</v>
+      </c>
       <c r="F88" s="6"/>
     </row>
     <row r="89" spans="1:6" ht="23">
-      <c r="A89" s="89" t="s">
+      <c r="A89" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="B89" s="90">
-        <v>6034</v>
-      </c>
-      <c r="C89" s="90" t="s">
+      <c r="B89" s="86">
+        <v>5449</v>
+      </c>
+      <c r="C89" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="D89" s="91" t="s">
-        <v>39</v>
-      </c>
-      <c r="E89" s="92">
-        <v>8</v>
-      </c>
+      <c r="D89" s="89" t="s">
+        <v>40</v>
+      </c>
+      <c r="E89" s="88"/>
       <c r="F89" s="6"/>
     </row>
     <row r="90" spans="1:6" ht="23">
-      <c r="A90" s="89" t="s">
+      <c r="A90" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="B90" s="90">
-        <v>5449</v>
-      </c>
-      <c r="C90" s="90" t="s">
+      <c r="B90" s="86">
+        <v>5640</v>
+      </c>
+      <c r="C90" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="D90" s="93" t="s">
-        <v>40</v>
-      </c>
-      <c r="E90" s="92"/>
+      <c r="D90" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="E90" s="88">
+        <v>3</v>
+      </c>
       <c r="F90" s="6"/>
     </row>
-    <row r="91" spans="1:6" ht="23">
-      <c r="A91" s="89" t="s">
+    <row r="91" spans="1:6" ht="46">
+      <c r="A91" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="B91" s="90">
-        <v>5640</v>
-      </c>
-      <c r="C91" s="90" t="s">
+      <c r="B91" s="86">
+        <v>5783</v>
+      </c>
+      <c r="C91" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="D91" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="E91" s="92">
+      <c r="D91" s="89" t="s">
+        <v>42</v>
+      </c>
+      <c r="E91" s="88">
+        <v>5</v>
+      </c>
+      <c r="F91" s="6"/>
+    </row>
+    <row r="92" spans="1:6" ht="23">
+      <c r="A92" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="B92" s="86">
+        <v>5945</v>
+      </c>
+      <c r="C92" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="D92" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="E92" s="88">
+        <v>5</v>
+      </c>
+      <c r="F92" s="6"/>
+    </row>
+    <row r="93" spans="1:6" ht="23">
+      <c r="A93" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="B93" s="86">
+        <v>5954</v>
+      </c>
+      <c r="C93" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="D93" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="E93" s="88">
+        <v>13</v>
+      </c>
+      <c r="F93" s="6"/>
+    </row>
+    <row r="94" spans="1:6" ht="23">
+      <c r="A94" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="B94" s="86">
+        <v>5955</v>
+      </c>
+      <c r="C94" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="D94" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="E94" s="88">
         <v>3</v>
       </c>
-      <c r="F91" s="6"/>
-    </row>
-    <row r="92" spans="1:6" ht="46">
-      <c r="A92" s="89" t="s">
+      <c r="F94" s="5"/>
+    </row>
+    <row r="95" spans="1:6" ht="23">
+      <c r="A95" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="B92" s="90">
-        <v>5783</v>
-      </c>
-      <c r="C92" s="90" t="s">
+      <c r="B95" s="86">
+        <v>5953</v>
+      </c>
+      <c r="C95" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="D92" s="93" t="s">
-        <v>42</v>
-      </c>
-      <c r="E92" s="92">
-        <v>5</v>
-      </c>
-      <c r="F92" s="6"/>
-    </row>
-    <row r="93" spans="1:6" ht="23">
-      <c r="A93" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="B93" s="90">
-        <v>5945</v>
-      </c>
-      <c r="C93" s="90" t="s">
+      <c r="D95" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="E95" s="88">
+        <v>2</v>
+      </c>
+      <c r="F95" s="5"/>
+    </row>
+    <row r="96" spans="1:6" ht="23">
+      <c r="A96" s="85"/>
+      <c r="B96" s="90"/>
+      <c r="C96" s="90"/>
+      <c r="D96" s="91"/>
+      <c r="E96" s="88"/>
+      <c r="F96" s="5"/>
+    </row>
+    <row r="97" spans="1:6" ht="23">
+      <c r="A97" s="85"/>
+      <c r="B97" s="86">
+        <v>6271</v>
+      </c>
+      <c r="C97" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="D93" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="E93" s="92">
-        <v>5</v>
-      </c>
-      <c r="F93" s="6"/>
-    </row>
-    <row r="94" spans="1:6" ht="23">
-      <c r="A94" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="B94" s="90">
-        <v>5954</v>
-      </c>
-      <c r="C94" s="90" t="s">
+      <c r="D97" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="E97" s="88"/>
+      <c r="F97" s="5"/>
+    </row>
+    <row r="98" spans="1:6" ht="23">
+      <c r="A98" s="85"/>
+      <c r="B98" s="86">
+        <v>6272</v>
+      </c>
+      <c r="C98" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="D94" s="93" t="s">
-        <v>44</v>
-      </c>
-      <c r="E94" s="92">
-        <v>13</v>
-      </c>
-      <c r="F94" s="6"/>
-    </row>
-    <row r="95" spans="1:6" ht="23">
-      <c r="A95" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="B95" s="90">
-        <v>5955</v>
-      </c>
-      <c r="C95" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="D95" s="93" t="s">
-        <v>45</v>
-      </c>
-      <c r="E95" s="92">
-        <v>3</v>
-      </c>
-      <c r="F95" s="5"/>
-    </row>
-    <row r="96" spans="1:6" ht="23">
-      <c r="A96" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="B96" s="90">
-        <v>5953</v>
-      </c>
-      <c r="C96" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="D96" s="93" t="s">
-        <v>46</v>
-      </c>
-      <c r="E96" s="92">
-        <v>2</v>
-      </c>
-      <c r="F96" s="5"/>
-    </row>
-    <row r="97" spans="1:6" ht="23">
-      <c r="A97" s="89"/>
-      <c r="B97" s="94"/>
-      <c r="C97" s="94"/>
-      <c r="D97" s="95"/>
-      <c r="E97" s="92"/>
-      <c r="F97" s="5"/>
-    </row>
-    <row r="98" spans="1:6" ht="23">
-      <c r="A98" s="89"/>
-      <c r="B98" s="90">
-        <v>6271</v>
-      </c>
-      <c r="C98" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="D98" s="93" t="s">
-        <v>47</v>
-      </c>
-      <c r="E98" s="92"/>
+      <c r="D98" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="E98" s="88"/>
       <c r="F98" s="5"/>
     </row>
     <row r="99" spans="1:6" ht="23">
-      <c r="A99" s="89"/>
-      <c r="B99" s="90">
-        <v>6272</v>
-      </c>
-      <c r="C99" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="D99" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="E99" s="92"/>
+      <c r="A99" s="92"/>
+      <c r="B99" s="51"/>
+      <c r="C99" s="51"/>
+      <c r="D99" s="52"/>
+      <c r="E99" s="93"/>
       <c r="F99" s="5"/>
     </row>
     <row r="100" spans="1:6" ht="23">
-      <c r="A100" s="96"/>
-      <c r="B100" s="51"/>
-      <c r="C100" s="51"/>
-      <c r="D100" s="52"/>
-      <c r="E100" s="97"/>
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="74"/>
+      <c r="E100" s="4"/>
       <c r="F100" s="5"/>
     </row>
-    <row r="101" spans="1:6" ht="23">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="74"/>
-      <c r="E101" s="4"/>
+    <row r="101" spans="1:6" ht="19" thickBot="1">
+      <c r="A101" s="117" t="s">
+        <v>127</v>
+      </c>
+      <c r="B101" s="118"/>
+      <c r="C101" s="118"/>
+      <c r="D101" s="118"/>
+      <c r="E101" s="119"/>
       <c r="F101" s="5"/>
     </row>
-    <row r="102" spans="1:6" ht="19" thickBot="1">
-      <c r="A102" s="122" t="s">
+    <row r="102" spans="1:6" ht="23">
+      <c r="A102" s="94"/>
+      <c r="B102" s="95">
+        <v>5411</v>
+      </c>
+      <c r="C102" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="B102" s="123"/>
-      <c r="C102" s="123"/>
-      <c r="D102" s="123"/>
-      <c r="E102" s="124"/>
+      <c r="E102" s="97"/>
       <c r="F102" s="5"/>
     </row>
     <row r="103" spans="1:6" ht="23">
-      <c r="A103" s="98"/>
-      <c r="B103" s="99">
-        <v>5411</v>
-      </c>
-      <c r="C103" s="99" t="s">
+      <c r="A103" s="25"/>
+      <c r="B103" s="26"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="5"/>
+    </row>
+    <row r="104" spans="1:6" ht="23">
+      <c r="A104" s="75"/>
+      <c r="B104" s="76">
+        <v>5385</v>
+      </c>
+      <c r="C104" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="D103" s="100" t="s">
+      <c r="D104" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="E103" s="101"/>
-      <c r="F103" s="5"/>
-    </row>
-    <row r="104" spans="1:6" ht="23">
-      <c r="A104" s="79"/>
-      <c r="B104" s="11">
-        <v>5412</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D104" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="E104" s="80"/>
+      <c r="E104" s="78"/>
       <c r="F104" s="5"/>
     </row>
     <row r="105" spans="1:6" ht="23">
       <c r="A105" s="79"/>
-      <c r="B105" s="11">
-        <v>5413</v>
-      </c>
-      <c r="C105" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D105" s="31" t="s">
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="31"/>
+      <c r="E105" s="80"/>
+      <c r="F105" s="5"/>
+    </row>
+    <row r="106" spans="1:6" ht="23">
+      <c r="A106" s="98"/>
+      <c r="B106" s="76">
+        <v>5182</v>
+      </c>
+      <c r="C106" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="99" t="s">
+        <v>51</v>
+      </c>
+      <c r="E106" s="100"/>
+      <c r="F106" s="5"/>
+    </row>
+    <row r="107" spans="1:6" ht="23">
+      <c r="A107" s="25"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="5"/>
+    </row>
+    <row r="108" spans="1:6" ht="23">
+      <c r="A108" s="75"/>
+      <c r="B108" s="76">
+        <v>3934</v>
+      </c>
+      <c r="C108" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="E105" s="80"/>
-      <c r="F105" s="6"/>
-    </row>
-    <row r="106" spans="1:6" ht="23">
-      <c r="A106" s="25"/>
-      <c r="B106" s="26"/>
-      <c r="C106" s="26"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="29"/>
-      <c r="F106" s="5"/>
-    </row>
-    <row r="107" spans="1:6" ht="23">
-      <c r="A107" s="75"/>
-      <c r="B107" s="76">
-        <v>5385</v>
-      </c>
-      <c r="C107" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="D107" s="77" t="s">
+      <c r="E108" s="78"/>
+      <c r="F108" s="5"/>
+    </row>
+    <row r="109" spans="1:6" ht="19" thickBot="1">
+      <c r="A109" s="101"/>
+      <c r="B109" s="102"/>
+      <c r="C109" s="102"/>
+      <c r="D109" s="103"/>
+      <c r="E109" s="104"/>
+      <c r="F109" s="6"/>
+    </row>
+    <row r="110" spans="1:6" ht="19" thickBot="1">
+      <c r="A110" s="111" t="s">
+        <v>130</v>
+      </c>
+      <c r="B110" s="112"/>
+      <c r="C110" s="112"/>
+      <c r="D110" s="112"/>
+      <c r="E110" s="113"/>
+      <c r="F110" s="6"/>
+    </row>
+    <row r="111" spans="1:6" ht="23">
+      <c r="A111" s="62"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="E111" s="64"/>
+      <c r="F111" s="5"/>
+    </row>
+    <row r="112" spans="1:6" ht="23">
+      <c r="A112" s="25"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="26"/>
+      <c r="D112" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="E107" s="78"/>
-      <c r="F107" s="5"/>
-    </row>
-    <row r="108" spans="1:6" ht="46">
-      <c r="A108" s="79"/>
-      <c r="B108" s="11">
-        <v>5386</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D108" s="31" t="s">
+      <c r="E112" s="29"/>
+      <c r="F112" s="6"/>
+    </row>
+    <row r="113" spans="1:6" ht="23">
+      <c r="A113" s="25"/>
+      <c r="B113" s="26"/>
+      <c r="C113" s="26"/>
+      <c r="D113" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E108" s="102" t="s">
+      <c r="E113" s="29"/>
+      <c r="F113" s="6"/>
+    </row>
+    <row r="114" spans="1:6" ht="46">
+      <c r="A114" s="79"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="F108" s="5"/>
-    </row>
-    <row r="109" spans="1:6" ht="23">
-      <c r="A109" s="79"/>
-      <c r="B109" s="11">
-        <v>5387</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D109" s="31" t="s">
+      <c r="E114" s="80"/>
+      <c r="F114" s="6"/>
+    </row>
+    <row r="115" spans="1:6" ht="23">
+      <c r="A115" s="25"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="26"/>
+      <c r="D115" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="E109" s="80"/>
-      <c r="F109" s="1"/>
-    </row>
-    <row r="110" spans="1:6" ht="23">
-      <c r="A110" s="79"/>
-      <c r="B110" s="11">
-        <v>5388</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D110" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="E110" s="80"/>
-      <c r="F110" s="5"/>
-    </row>
-    <row r="111" spans="1:6" ht="23">
-      <c r="A111" s="79"/>
-      <c r="B111" s="11">
-        <v>5389</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D111" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="E111" s="80"/>
-      <c r="F111" s="5"/>
-    </row>
-    <row r="112" spans="1:6" ht="23">
-      <c r="A112" s="79"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="31"/>
-      <c r="E112" s="80"/>
-      <c r="F112" s="5"/>
-    </row>
-    <row r="113" spans="1:6" ht="23">
-      <c r="A113" s="103"/>
-      <c r="B113" s="76">
-        <v>5182</v>
-      </c>
-      <c r="C113" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="D113" s="104" t="s">
-        <v>59</v>
-      </c>
-      <c r="E113" s="105"/>
-      <c r="F113" s="5"/>
-    </row>
-    <row r="114" spans="1:6" ht="23">
-      <c r="A114" s="79"/>
-      <c r="B114" s="11">
-        <v>5403</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D114" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="E114" s="80"/>
-      <c r="F114" s="5"/>
-    </row>
-    <row r="115" spans="1:6" ht="23">
-      <c r="A115" s="79"/>
-      <c r="B115" s="11">
-        <v>5404</v>
-      </c>
-      <c r="C115" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D115" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E115" s="80"/>
-      <c r="F115" s="5"/>
+      <c r="E115" s="29"/>
+      <c r="F115" s="6"/>
     </row>
     <row r="116" spans="1:6" ht="23">
       <c r="A116" s="25"/>
       <c r="B116" s="26"/>
       <c r="C116" s="26"/>
-      <c r="D116" s="30"/>
+      <c r="D116" s="30" t="s">
+        <v>57</v>
+      </c>
       <c r="E116" s="29"/>
-      <c r="F116" s="5"/>
+      <c r="F116" s="6"/>
     </row>
     <row r="117" spans="1:6" ht="23">
-      <c r="A117" s="75"/>
-      <c r="B117" s="76">
-        <v>3934</v>
-      </c>
-      <c r="C117" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="D117" s="77" t="s">
-        <v>62</v>
-      </c>
-      <c r="E117" s="78"/>
-      <c r="F117" s="5"/>
-    </row>
-    <row r="118" spans="1:6" ht="23">
-      <c r="A118" s="79"/>
-      <c r="B118" s="11">
-        <v>3935</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D118" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E118" s="80"/>
+      <c r="A117" s="25"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="26"/>
+      <c r="D117" s="30"/>
+      <c r="E117" s="29"/>
+      <c r="F117" s="6"/>
+    </row>
+    <row r="118" spans="1:6" ht="46">
+      <c r="A118" s="25"/>
+      <c r="B118" s="26"/>
+      <c r="C118" s="26"/>
+      <c r="D118" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E118" s="29"/>
       <c r="F118" s="5"/>
     </row>
-    <row r="119" spans="1:6" ht="23">
+    <row r="119" spans="1:6" ht="46">
       <c r="A119" s="25"/>
-      <c r="B119" s="26">
-        <v>3936</v>
-      </c>
-      <c r="C119" s="26" t="s">
-        <v>7</v>
-      </c>
+      <c r="B119" s="26"/>
+      <c r="C119" s="26"/>
       <c r="D119" s="30" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E119" s="29"/>
       <c r="F119" s="5"/>
     </row>
     <row r="120" spans="1:6" ht="23">
       <c r="A120" s="25"/>
-      <c r="B120" s="26">
-        <v>3937</v>
-      </c>
-      <c r="C120" s="26" t="s">
-        <v>7</v>
-      </c>
+      <c r="B120" s="26"/>
+      <c r="C120" s="26"/>
       <c r="D120" s="30" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E120" s="29"/>
       <c r="F120" s="5"/>
     </row>
     <row r="121" spans="1:6" ht="23">
       <c r="A121" s="25"/>
-      <c r="B121" s="26">
-        <v>3938</v>
-      </c>
-      <c r="C121" s="26" t="s">
-        <v>7</v>
-      </c>
+      <c r="B121" s="26"/>
+      <c r="C121" s="26"/>
       <c r="D121" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="E121" s="29"/>
-      <c r="F121" s="5"/>
-    </row>
-    <row r="122" spans="1:6" ht="19" thickBot="1">
-      <c r="A122" s="106"/>
-      <c r="B122" s="107"/>
-      <c r="C122" s="107"/>
-      <c r="D122" s="108"/>
-      <c r="E122" s="109"/>
+        <v>61</v>
+      </c>
+      <c r="E121" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F121" s="6"/>
+    </row>
+    <row r="122" spans="1:6" ht="23">
+      <c r="A122" s="25"/>
+      <c r="B122" s="26"/>
+      <c r="C122" s="26"/>
+      <c r="D122" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E122" s="29" t="s">
+        <v>62</v>
+      </c>
       <c r="F122" s="6"/>
     </row>
-    <row r="123" spans="1:6" ht="19" thickBot="1">
-      <c r="A123" s="116" t="s">
-        <v>143</v>
-      </c>
-      <c r="B123" s="117"/>
-      <c r="C123" s="117"/>
-      <c r="D123" s="117"/>
-      <c r="E123" s="118"/>
+    <row r="123" spans="1:6" ht="23">
+      <c r="A123" s="25"/>
+      <c r="B123" s="26"/>
+      <c r="C123" s="26"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="29"/>
       <c r="F123" s="6"/>
     </row>
     <row r="124" spans="1:6" ht="23">
-      <c r="A124" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="B124" s="27">
-        <v>6394</v>
-      </c>
-      <c r="C124" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D124" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="E124" s="64"/>
-      <c r="F124" s="5"/>
-    </row>
-    <row r="125" spans="1:6" ht="23">
+      <c r="A124" s="25"/>
+      <c r="B124" s="26"/>
+      <c r="C124" s="26"/>
+      <c r="D124" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="29"/>
+      <c r="F124" s="6"/>
+    </row>
+    <row r="125" spans="1:6" ht="46">
       <c r="A125" s="25"/>
-      <c r="B125" s="26">
-        <v>6001</v>
-      </c>
+      <c r="B125" s="26"/>
       <c r="C125" s="26"/>
       <c r="D125" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E125" s="29"/>
+        <v>65</v>
+      </c>
+      <c r="E125" s="29" t="s">
+        <v>62</v>
+      </c>
       <c r="F125" s="6"/>
     </row>
-    <row r="126" spans="1:6" ht="23">
+    <row r="126" spans="1:6" ht="46">
       <c r="A126" s="25"/>
       <c r="B126" s="26"/>
       <c r="C126" s="26"/>
       <c r="D126" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="E126" s="29"/>
+        <v>66</v>
+      </c>
+      <c r="E126" s="29" t="s">
+        <v>62</v>
+      </c>
       <c r="F126" s="6"/>
     </row>
-    <row r="127" spans="1:6" ht="46">
-      <c r="A127" s="79"/>
-      <c r="B127" s="11"/>
-      <c r="C127" s="11"/>
-      <c r="D127" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E127" s="80"/>
+    <row r="127" spans="1:6" ht="69">
+      <c r="A127" s="25"/>
+      <c r="B127" s="26"/>
+      <c r="C127" s="26"/>
+      <c r="D127" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E127" s="29"/>
       <c r="F127" s="6"/>
     </row>
     <row r="128" spans="1:6" ht="23">
@@ -3603,7 +3514,7 @@
       <c r="B128" s="26"/>
       <c r="C128" s="26"/>
       <c r="D128" s="30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E128" s="29"/>
       <c r="F128" s="6"/>
@@ -3613,7 +3524,7 @@
       <c r="B129" s="26"/>
       <c r="C129" s="26"/>
       <c r="D129" s="30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E129" s="29"/>
       <c r="F129" s="6"/>
@@ -3622,50 +3533,50 @@
       <c r="A130" s="25"/>
       <c r="B130" s="26"/>
       <c r="C130" s="26"/>
-      <c r="D130" s="30"/>
+      <c r="D130" s="30" t="s">
+        <v>70</v>
+      </c>
       <c r="E130" s="29"/>
       <c r="F130" s="6"/>
     </row>
-    <row r="131" spans="1:6" ht="46">
+    <row r="131" spans="1:6" ht="69">
       <c r="A131" s="25"/>
       <c r="B131" s="26"/>
       <c r="C131" s="26"/>
       <c r="D131" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E131" s="29"/>
-      <c r="F131" s="5"/>
-    </row>
-    <row r="132" spans="1:6" ht="46">
+      <c r="F131" s="6"/>
+    </row>
+    <row r="132" spans="1:6" ht="23">
       <c r="A132" s="25"/>
       <c r="B132" s="26"/>
       <c r="C132" s="26"/>
       <c r="D132" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E132" s="29"/>
-      <c r="F132" s="5"/>
+      <c r="F132" s="6"/>
     </row>
     <row r="133" spans="1:6" ht="23">
       <c r="A133" s="25"/>
       <c r="B133" s="26"/>
       <c r="C133" s="26"/>
       <c r="D133" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E133" s="29"/>
-      <c r="F133" s="5"/>
+      <c r="F133" s="6"/>
     </row>
     <row r="134" spans="1:6" ht="23">
       <c r="A134" s="25"/>
       <c r="B134" s="26"/>
       <c r="C134" s="26"/>
       <c r="D134" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E134" s="29" t="s">
-        <v>76</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E134" s="29"/>
       <c r="F134" s="6"/>
     </row>
     <row r="135" spans="1:6" ht="23">
@@ -3673,61 +3584,55 @@
       <c r="B135" s="26"/>
       <c r="C135" s="26"/>
       <c r="D135" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="E135" s="29" t="s">
-        <v>76</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E135" s="29"/>
       <c r="F135" s="6"/>
     </row>
-    <row r="136" spans="1:6" ht="23">
+    <row r="136" spans="1:6" ht="24" thickBot="1">
       <c r="A136" s="25"/>
       <c r="B136" s="26"/>
       <c r="C136" s="26"/>
-      <c r="D136" s="30"/>
+      <c r="D136" s="105"/>
       <c r="E136" s="29"/>
       <c r="F136" s="6"/>
     </row>
-    <row r="137" spans="1:6" ht="23">
-      <c r="A137" s="25"/>
-      <c r="B137" s="26"/>
-      <c r="C137" s="26"/>
-      <c r="D137" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="E137" s="29"/>
+    <row r="137" spans="1:6" ht="19" thickBot="1">
+      <c r="A137" s="111" t="s">
+        <v>129</v>
+      </c>
+      <c r="B137" s="112"/>
+      <c r="C137" s="112"/>
+      <c r="D137" s="112"/>
+      <c r="E137" s="113"/>
       <c r="F137" s="6"/>
     </row>
-    <row r="138" spans="1:6" ht="46">
-      <c r="A138" s="25"/>
-      <c r="B138" s="26"/>
-      <c r="C138" s="26"/>
-      <c r="D138" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E138" s="29" t="s">
+    <row r="138" spans="1:6" ht="23">
+      <c r="A138" s="79"/>
+      <c r="B138" s="11"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E138" s="80"/>
+      <c r="F138" s="6"/>
+    </row>
+    <row r="139" spans="1:6" ht="23">
+      <c r="A139" s="79"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="F138" s="6"/>
-    </row>
-    <row r="139" spans="1:6" ht="46">
-      <c r="A139" s="25"/>
-      <c r="B139" s="26"/>
-      <c r="C139" s="26"/>
-      <c r="D139" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E139" s="29" t="s">
-        <v>76</v>
-      </c>
+      <c r="E139" s="80"/>
       <c r="F139" s="6"/>
     </row>
-    <row r="140" spans="1:6" ht="69">
+    <row r="140" spans="1:6" ht="23">
       <c r="A140" s="25"/>
       <c r="B140" s="26"/>
       <c r="C140" s="26"/>
       <c r="D140" s="30" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E140" s="29"/>
       <c r="F140" s="6"/>
@@ -3737,7 +3642,7 @@
       <c r="B141" s="26"/>
       <c r="C141" s="26"/>
       <c r="D141" s="30" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E141" s="29"/>
       <c r="F141" s="6"/>
@@ -3747,7 +3652,7 @@
       <c r="B142" s="26"/>
       <c r="C142" s="26"/>
       <c r="D142" s="30" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E142" s="29"/>
       <c r="F142" s="6"/>
@@ -3757,17 +3662,17 @@
       <c r="B143" s="26"/>
       <c r="C143" s="26"/>
       <c r="D143" s="30" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E143" s="29"/>
       <c r="F143" s="6"/>
     </row>
-    <row r="144" spans="1:6" ht="69">
+    <row r="144" spans="1:6" ht="23">
       <c r="A144" s="25"/>
       <c r="B144" s="26"/>
       <c r="C144" s="26"/>
       <c r="D144" s="30" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E144" s="29"/>
       <c r="F144" s="6"/>
@@ -3777,17 +3682,17 @@
       <c r="B145" s="26"/>
       <c r="C145" s="26"/>
       <c r="D145" s="30" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E145" s="29"/>
       <c r="F145" s="6"/>
     </row>
-    <row r="146" spans="1:6" ht="23">
+    <row r="146" spans="1:6" ht="46">
       <c r="A146" s="25"/>
       <c r="B146" s="26"/>
       <c r="C146" s="26"/>
       <c r="D146" s="30" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E146" s="29"/>
       <c r="F146" s="6"/>
@@ -3797,7 +3702,7 @@
       <c r="B147" s="26"/>
       <c r="C147" s="26"/>
       <c r="D147" s="30" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E147" s="29"/>
       <c r="F147" s="6"/>
@@ -3807,146 +3712,29 @@
       <c r="B148" s="26"/>
       <c r="C148" s="26"/>
       <c r="D148" s="30" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E148" s="29"/>
       <c r="F148" s="6"/>
     </row>
-    <row r="149" spans="1:6" ht="23">
-      <c r="A149" s="25"/>
-      <c r="B149" s="26"/>
-      <c r="C149" s="26"/>
-      <c r="D149" s="110"/>
-      <c r="E149" s="29"/>
+    <row r="149" spans="1:6" ht="24" thickBot="1">
+      <c r="A149" s="106"/>
+      <c r="B149" s="107"/>
+      <c r="C149" s="107"/>
+      <c r="D149" s="108" t="s">
+        <v>86</v>
+      </c>
+      <c r="E149" s="109"/>
       <c r="F149" s="6"/>
     </row>
-    <row r="150" spans="1:6" ht="23">
-      <c r="A150" s="79"/>
-      <c r="B150" s="11"/>
-      <c r="C150" s="11"/>
-      <c r="D150" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="E150" s="80"/>
-      <c r="F150" s="6"/>
-    </row>
-    <row r="151" spans="1:6" ht="23">
-      <c r="A151" s="79"/>
-      <c r="B151" s="11"/>
-      <c r="C151" s="11"/>
-      <c r="D151" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="E151" s="80"/>
-      <c r="F151" s="6"/>
-    </row>
-    <row r="152" spans="1:6" ht="23">
-      <c r="A152" s="25"/>
-      <c r="B152" s="26"/>
-      <c r="C152" s="26"/>
-      <c r="D152" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="E152" s="29"/>
-      <c r="F152" s="6"/>
-    </row>
-    <row r="153" spans="1:6" ht="23">
-      <c r="A153" s="25"/>
-      <c r="B153" s="26"/>
-      <c r="C153" s="26"/>
-      <c r="D153" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="E153" s="29"/>
-      <c r="F153" s="6"/>
-    </row>
-    <row r="154" spans="1:6" ht="23">
-      <c r="A154" s="25"/>
-      <c r="B154" s="26"/>
-      <c r="C154" s="26"/>
-      <c r="D154" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="E154" s="29"/>
-      <c r="F154" s="6"/>
-    </row>
-    <row r="155" spans="1:6" ht="23">
-      <c r="A155" s="25"/>
-      <c r="B155" s="26"/>
-      <c r="C155" s="26"/>
-      <c r="D155" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E155" s="29"/>
-      <c r="F155" s="6"/>
-    </row>
-    <row r="156" spans="1:6" ht="23">
-      <c r="A156" s="25"/>
-      <c r="B156" s="26"/>
-      <c r="C156" s="26"/>
-      <c r="D156" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="E156" s="29"/>
-      <c r="F156" s="6"/>
-    </row>
-    <row r="157" spans="1:6" ht="23">
-      <c r="A157" s="25"/>
-      <c r="B157" s="26"/>
-      <c r="C157" s="26"/>
-      <c r="D157" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E157" s="29"/>
-      <c r="F157" s="6"/>
-    </row>
-    <row r="158" spans="1:6" ht="46">
-      <c r="A158" s="25"/>
-      <c r="B158" s="26"/>
-      <c r="C158" s="26"/>
-      <c r="D158" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="E158" s="29"/>
-      <c r="F158" s="6"/>
-    </row>
-    <row r="159" spans="1:6" ht="23">
-      <c r="A159" s="25"/>
-      <c r="B159" s="26"/>
-      <c r="C159" s="26"/>
-      <c r="D159" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="E159" s="29"/>
-      <c r="F159" s="6"/>
-    </row>
-    <row r="160" spans="1:6" ht="23">
-      <c r="A160" s="25"/>
-      <c r="B160" s="26"/>
-      <c r="C160" s="26"/>
-      <c r="D160" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E160" s="29"/>
-      <c r="F160" s="6"/>
-    </row>
-    <row r="161" spans="1:6" ht="24" thickBot="1">
-      <c r="A161" s="111"/>
-      <c r="B161" s="112"/>
-      <c r="C161" s="112"/>
-      <c r="D161" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="E161" s="114"/>
-      <c r="F161" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A123:E123"/>
+  <mergeCells count="6">
+    <mergeCell ref="A137:E137"/>
+    <mergeCell ref="A110:E110"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A101:E101"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="52" fitToHeight="0" orientation="landscape"/>

--- a/notes/Campaign Manager Backlog 10022014.xlsx
+++ b/notes/Campaign Manager Backlog 10022014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="480" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1880" yWindow="480" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Campaign Manager" sheetId="1" r:id="rId1"/>
@@ -405,19 +405,19 @@
     <t>Validate user configuration upon login</t>
   </si>
   <si>
-    <t>Road Map (12-24 Weeks) Not for 2/1</t>
-  </si>
-  <si>
-    <t>(7-11 weeks) To be evaluated for 2/1</t>
-  </si>
-  <si>
-    <t>Wish List</t>
-  </si>
-  <si>
     <t>Strategy (24+ Weeks)</t>
   </si>
   <si>
     <t>Incoropriate require.js</t>
+  </si>
+  <si>
+    <t>(7-11 weeks)</t>
+  </si>
+  <si>
+    <t>Road Map (12-24 Weeks)</t>
+  </si>
+  <si>
+    <t>Wish List/Requests</t>
   </si>
 </sst>
 </file>
@@ -1786,8 +1786,8 @@
   <dimension ref="A1:F149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A137" sqref="A137:E137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2139,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E23" s="11">
         <v>21</v>
@@ -2485,7 +2485,7 @@
     </row>
     <row r="48" spans="1:6" ht="19" thickBot="1">
       <c r="A48" s="117" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B48" s="118"/>
       <c r="C48" s="118"/>
@@ -3229,7 +3229,7 @@
     </row>
     <row r="101" spans="1:6" ht="19" thickBot="1">
       <c r="A101" s="117" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B101" s="118"/>
       <c r="C101" s="118"/>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="110" spans="1:6" ht="19" thickBot="1">
       <c r="A110" s="111" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B110" s="112"/>
       <c r="C110" s="112"/>
@@ -3599,7 +3599,7 @@
     </row>
     <row r="137" spans="1:6" ht="19" thickBot="1">
       <c r="A137" s="111" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B137" s="112"/>
       <c r="C137" s="112"/>
